--- a/months/jul23/jul23.xlsx
+++ b/months/jul23/jul23.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="213">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -874,7 +874,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -908,10 +908,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1510,11 +1506,11 @@
   <dimension ref="A1:AM32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="Y17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="Y1" activeCellId="0" sqref="Y1"/>
+      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="Z31" activeCellId="0" sqref="Z31"/>
+      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1697,119 +1693,119 @@
         <f aca="false">price!AD1</f>
         <v>l:meals</v>
       </c>
-      <c r="AM1" s="9" t="str">
+      <c r="AM1" s="6" t="str">
         <f aca="false">IFERROR(IF(INDEX(#REF!,MATCH(AL1,#REF!,0)+1)=0,"",INDEX(#REF!,MATCH(AL1,#REF!,0)+1)), "")</f>
         <v/>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="9" t="n">
         <v>45108</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A2,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="J2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="11" t="s">
+      <c r="M2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="11" t="s">
+      <c r="P2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X2" s="12" t="s">
+      <c r="V2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Y2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE2" s="11" t="s">
+      <c r="Z2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AF2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH2" s="11" t="s">
+      <c r="AF2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AI2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AK2" s="0" t="n">
@@ -1817,113 +1813,113 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="9" t="n">
         <v>45109</v>
       </c>
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A3,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="12" t="s">
+      <c r="P3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" s="11" t="s">
+      <c r="T3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X3" s="12" t="s">
+      <c r="V3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AD3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE3" s="11" t="s">
+      <c r="AD3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AF3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AF3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AH3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI3" s="11" t="s">
+      <c r="AH3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="11" t="s">
+      <c r="AJ3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AK3" s="0" t="n">
@@ -1931,113 +1927,113 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="9" t="n">
         <v>45110</v>
       </c>
-      <c r="B4" s="11" t="n">
+      <c r="B4" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A4,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="12" t="s">
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="J4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U4" s="11" t="s">
+      <c r="O4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X4" s="12" t="s">
+      <c r="V4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="Y4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC4" s="11" t="s">
+      <c r="Z4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AD4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AD4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="12" t="s">
+      <c r="AF4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AG4" s="11" t="s">
+      <c r="AG4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AH4" s="11" t="s">
+      <c r="AH4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AI4" s="11" t="s">
+      <c r="AI4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="11" t="s">
+      <c r="AJ4" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AK4" s="0" t="n">
@@ -2045,1367 +2041,1367 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="9" t="n">
         <v>45111</v>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A5,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="12" t="s">
+      <c r="H5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="11" t="s">
+      <c r="J5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="N5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="12" t="s">
+      <c r="O5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U5" s="11" t="s">
+      <c r="T5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X5" s="12" t="s">
+      <c r="V5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE5" s="11" t="s">
+      <c r="Z5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AF5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AG5" s="11" t="s">
+      <c r="AG5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="11" t="s">
+      <c r="AH5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AI5" s="11" t="s">
+      <c r="AI5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AJ5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK5" s="11" t="s">
+      <c r="AJ5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="9" t="n">
         <v>45112</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A6,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="F6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="H6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="J6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="12" t="s">
+      <c r="P6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U6" s="11" t="s">
+      <c r="T6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X6" s="12" t="s">
+      <c r="V6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA6" s="11" t="s">
+      <c r="Y6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AB6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC6" s="11" t="s">
+      <c r="AB6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AD6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE6" s="11" t="s">
+      <c r="AD6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AF6" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG6" s="11" t="s">
+      <c r="AF6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AH6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI6" s="11" t="s">
+      <c r="AH6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AJ6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK6" s="11" t="s">
+      <c r="AJ6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
+      <c r="A7" s="9" t="n">
         <v>45113</v>
       </c>
-      <c r="B7" s="11" t="n">
+      <c r="B7" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A7,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="G7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="11" t="s">
+      <c r="J7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O7" s="11" t="s">
+      <c r="O7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="12" t="s">
+      <c r="P7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U7" s="11" t="s">
+      <c r="T7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y7" s="11" t="s">
+      <c r="V7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC7" s="11" t="s">
+      <c r="Z7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC7" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AD7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE7" s="11" t="s">
+      <c r="AD7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AF7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI7" s="11" t="s">
+      <c r="AF7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AJ7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK7" s="11" t="s">
+      <c r="AJ7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="9" t="n">
         <v>45114</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A8,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="11" t="s">
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="11" t="s">
+      <c r="J8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="12" t="s">
+      <c r="M8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="12" t="s">
+      <c r="P8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T8" s="12" t="s">
+      <c r="T8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X8" s="12" t="s">
+      <c r="V8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y8" s="11" t="s">
+      <c r="Y8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="Z8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA8" s="11" t="s">
+      <c r="Z8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AB8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AB8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AD8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE8" s="11" t="s">
+      <c r="AD8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="AF8" s="12" t="s">
+      <c r="AF8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AG8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH8" s="11" t="s">
+      <c r="AG8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AI8" s="11" t="s">
+      <c r="AI8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AJ8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK8" s="11" t="s">
+      <c r="AJ8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK8" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="9" t="n">
         <v>45115</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A9,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="11" t="s">
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="11" t="s">
+      <c r="J9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="12" t="s">
+      <c r="M9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="11" t="s">
+      <c r="N9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="12" t="s">
+      <c r="P9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T9" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X9" s="12" t="s">
+      <c r="T9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y9" s="11" t="s">
+      <c r="Y9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="11" t="s">
+      <c r="Z9" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AA9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AA9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE9" s="11" t="s">
+      <c r="AD9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AF9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI9" s="11" t="s">
+      <c r="AF9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI9" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AJ9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK9" s="11" t="s">
+      <c r="AJ9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK9" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="9" t="n">
         <v>45116</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A10,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="F10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="11" t="s">
+      <c r="J10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="M10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S10" s="12" t="s">
+      <c r="P10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U10" s="11" t="s">
+      <c r="T10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X10" s="12" t="s">
+      <c r="V10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="Y10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA10" s="11" t="s">
+      <c r="Z10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AB10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC10" s="11" t="s">
+      <c r="AB10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AD10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE10" s="11" t="s">
+      <c r="AD10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AF10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI10" s="11" t="s">
+      <c r="AF10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI10" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AJ10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK10" s="11" t="s">
+      <c r="AJ10" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK10" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="9" t="n">
         <v>45117</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B11" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A11,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="12" t="s">
+      <c r="G11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="11" t="s">
+      <c r="J11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="12" t="s">
+      <c r="M11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="12" t="s">
+      <c r="P11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U11" s="11" t="s">
+      <c r="T11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U11" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X11" s="12" t="s">
+      <c r="V11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y11" s="11" t="s">
+      <c r="Y11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF11" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI11" s="11" t="s">
+      <c r="Z11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI11" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AJ11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK11" s="11" t="s">
+      <c r="AJ11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK11" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="9" t="n">
         <v>45118</v>
       </c>
-      <c r="B12" s="11" t="n">
+      <c r="B12" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A12,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="12" t="s">
+      <c r="G12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="11" t="s">
+      <c r="J12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M12" s="12" t="s">
+      <c r="M12" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S12" s="12" t="s">
+      <c r="P12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X12" s="12" t="s">
+      <c r="T12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y12" s="11" t="s">
+      <c r="Y12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z12" s="11" t="s">
+      <c r="Z12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AA12" s="11" t="s">
+      <c r="AA12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE12" s="11" t="s">
+      <c r="AB12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AF12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH12" s="11" t="s">
+      <c r="AF12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH12" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="AI12" s="11" t="s">
+      <c r="AI12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="AJ12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK12" s="11" t="s">
+      <c r="AJ12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK12" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="9" t="n">
         <v>45119</v>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A13,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="12" t="s">
+      <c r="F13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M13" s="12" t="s">
+      <c r="M13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="11" t="s">
+      <c r="O13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="12" t="s">
+      <c r="P13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U13" s="11" t="s">
+      <c r="T13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y13" s="11" t="s">
+      <c r="V13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y13" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z13" s="11" t="s">
+      <c r="Z13" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="AA13" s="11" t="s">
+      <c r="AA13" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AB13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="11" t="s">
+      <c r="AB13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AD13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE13" s="11" t="s">
+      <c r="AD13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AF13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI13" s="11" t="s">
+      <c r="AF13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI13" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AJ13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK13" s="11" t="s">
+      <c r="AJ13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK13" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="9" t="n">
         <v>45120</v>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A14,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="12" t="s">
+      <c r="G14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="11" t="s">
+      <c r="J14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="O14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S14" s="12" t="s">
+      <c r="O14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U14" s="11" t="s">
+      <c r="T14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X14" s="12" t="s">
+      <c r="V14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" s="11" t="s">
+      <c r="Y14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z14" s="11" t="s">
+      <c r="Z14" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC14" s="11" t="s">
+      <c r="AA14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AD14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE14" s="11" t="s">
+      <c r="AD14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE14" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AF14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI14" s="11" t="s">
+      <c r="AF14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AJ14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK14" s="11" t="s">
+      <c r="AJ14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK14" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="9" t="n">
         <v>45121</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A15,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="12" t="s">
+      <c r="G15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="L15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="O15" s="11" t="s">
+      <c r="O15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S15" s="12" t="s">
+      <c r="P15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="12" t="s">
+      <c r="T15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y15" s="11" t="s">
+      <c r="Y15" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Z15" s="11" t="s">
+      <c r="Z15" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AA15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE15" s="11" t="s">
+      <c r="AA15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AF15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI15" s="11" t="s">
+      <c r="AF15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI15" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AJ15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK15" s="11" t="s">
+      <c r="AJ15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK15" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="9" t="n">
         <v>45122</v>
       </c>
-      <c r="B16" s="11" t="n">
+      <c r="B16" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A16,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="F16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K16" s="11" t="s">
+      <c r="J16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="12" t="s">
+      <c r="M16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S16" s="12" t="s">
+      <c r="P16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U16" s="11" t="s">
+      <c r="T16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="V16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X16" s="12" t="s">
+      <c r="V16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y16" s="11" t="s">
+      <c r="Y16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="Z16" s="11" t="s">
+      <c r="Z16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AA16" s="11" t="s">
+      <c r="AA16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AB16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC16" s="11" t="s">
+      <c r="AB16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC16" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AD16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE16" s="11" t="s">
+      <c r="AD16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH16" s="11" t="s">
+      <c r="AF16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AI16" s="11" t="s">
+      <c r="AI16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AJ16" s="11" t="s">
+      <c r="AJ16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AK16" s="0" t="n">
@@ -3413,113 +3409,113 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="9" t="n">
         <v>45123</v>
       </c>
-      <c r="B17" s="11" t="n">
+      <c r="B17" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A17,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="12" t="s">
+      <c r="G17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K17" s="11" t="s">
+      <c r="J17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="M17" s="12" t="s">
+      <c r="M17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="12" t="s">
+      <c r="P17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X17" s="12" t="n">
+      <c r="T17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X17" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="Y17" s="11" t="n">
+      <c r="Y17" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="Z17" s="11" t="n">
+      <c r="Z17" s="10" t="n">
         <v>-7</v>
       </c>
-      <c r="AA17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE17" s="11" t="n">
+      <c r="AA17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD17" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE17" s="10" t="n">
         <v>6</v>
       </c>
       <c r="AF17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AG17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI17" s="11" t="s">
+      <c r="AG17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AJ17" s="11" t="s">
+      <c r="AJ17" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AK17" s="0" t="n">
@@ -3527,113 +3523,113 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
+      <c r="A18" s="9" t="n">
         <v>45124</v>
       </c>
-      <c r="B18" s="11" t="n">
+      <c r="B18" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A18,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="12" t="s">
+      <c r="G18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K18" s="11" t="s">
+      <c r="J18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="L18" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S18" s="12" t="s">
+      <c r="P18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T18" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U18" s="11" t="s">
+      <c r="T18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W18" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="X18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y18" s="11" t="s">
+      <c r="V18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z18" s="11" t="s">
+      <c r="Z18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AA18" s="11" t="s">
+      <c r="AA18" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AB18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC18" s="11" t="s">
+      <c r="AB18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC18" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="AD18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE18" s="11" t="s">
+      <c r="AD18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AF18" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI18" s="11" t="s">
+      <c r="AF18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI18" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="AJ18" s="11" t="s">
+      <c r="AJ18" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AK18" s="0" t="n">
@@ -3641,683 +3637,683 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="9" t="n">
         <v>45125</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A19,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="F19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="12" t="s">
+      <c r="H19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="11" t="s">
+      <c r="J19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="L19" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N19" s="11" t="s">
+      <c r="M19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="O19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S19" s="12" t="s">
+      <c r="O19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T19" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U19" s="11" t="s">
+      <c r="T19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U19" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="V19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X19" s="12" t="s">
+      <c r="V19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="Y19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z19" s="11" t="s">
+      <c r="Z19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AA19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC19" s="11" t="s">
+      <c r="AA19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC19" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="AD19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE19" s="11" t="s">
+      <c r="AD19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AF19" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG19" s="11" t="s">
+      <c r="AF19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AH19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI19" s="11" t="s">
+      <c r="AH19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AJ19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK19" s="13" t="s">
+      <c r="AJ19" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK19" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="9" t="n">
         <v>45126</v>
       </c>
-      <c r="B20" s="11" t="n">
+      <c r="B20" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A20,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="11" t="s">
+      <c r="F20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="12" t="s">
+      <c r="H20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K20" s="11" t="s">
+      <c r="J20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M20" s="12" t="s">
+      <c r="M20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T20" s="12" t="s">
+      <c r="O20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="U20" s="11" t="s">
+      <c r="U20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="V20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X20" s="12" t="s">
+      <c r="V20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X20" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y20" s="11" t="s">
+      <c r="Y20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="Z20" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC20" s="11" t="s">
+      <c r="AA20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB20" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AD20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE20" s="11" t="s">
+      <c r="AD20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF20" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG20" s="11" t="s">
+      <c r="AF20" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AH20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI20" s="11" t="s">
+      <c r="AH20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="AJ20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK20" s="11" t="s">
+      <c r="AJ20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK20" s="10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
+      <c r="A21" s="9" t="n">
         <v>45127</v>
       </c>
-      <c r="B21" s="11" t="n">
+      <c r="B21" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A21,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="12" t="s">
+      <c r="H21" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="11" t="s">
+      <c r="J21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="M21" s="12" t="s">
+      <c r="M21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="O21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S21" s="12" t="s">
+      <c r="O21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T21" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U21" s="11" t="s">
+      <c r="T21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U21" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="V21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y21" s="11" t="s">
+      <c r="V21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z21" s="11" t="s">
+      <c r="Z21" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AA21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC21" s="11" t="s">
+      <c r="AA21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AD21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE21" s="11" t="s">
+      <c r="AD21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE21" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AF21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG21" s="11" t="s">
+      <c r="AF21" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AH21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI21" s="11" t="s">
+      <c r="AH21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="AJ21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK21" s="11" t="s">
+      <c r="AJ21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK21" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+      <c r="A22" s="9" t="n">
         <v>45128</v>
       </c>
-      <c r="B22" s="11" t="n">
+      <c r="B22" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A22,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="12" t="s">
+      <c r="H22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K22" s="11" t="s">
+      <c r="J22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="L22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="12" t="s">
+      <c r="M22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="O22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="P22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R22" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S22" s="12" t="s">
+      <c r="O22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R22" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T22" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U22" s="11" t="s">
+      <c r="T22" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="V22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y22" s="11" t="s">
+      <c r="V22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z22" s="11" t="s">
+      <c r="Z22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AA22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE22" s="11" t="s">
+      <c r="AA22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AF22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG22" s="11" t="s">
+      <c r="AF22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI22" s="11" t="s">
+      <c r="AH22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AJ22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK22" s="11" t="s">
+      <c r="AJ22" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK22" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
+      <c r="A23" s="9" t="n">
         <v>45129</v>
       </c>
-      <c r="B23" s="11" t="n">
+      <c r="B23" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A23,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="12" t="s">
+      <c r="F23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" s="11" t="s">
+      <c r="J23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="M23" s="12" t="s">
+      <c r="M23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S23" s="12" t="s">
+      <c r="P23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="T23" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U23" s="11" t="s">
+      <c r="T23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="V23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y23" s="11" t="s">
+      <c r="V23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Z23" s="11" t="s">
+      <c r="Z23" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA23" s="11" t="s">
+      <c r="AA23" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AB23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC23" s="11" t="s">
+      <c r="AB23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AD23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE23" s="11" t="s">
+      <c r="AD23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AF23" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG23" s="11" t="s">
+      <c r="AF23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG23" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AH23" s="11" t="s">
+      <c r="AH23" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AI23" s="11" t="s">
+      <c r="AI23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AJ23" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK23" s="11" t="s">
+      <c r="AJ23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK23" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
+      <c r="A24" s="9" t="n">
         <v>45130</v>
       </c>
-      <c r="B24" s="11" t="n">
+      <c r="B24" s="10" t="n">
         <f aca="false">IFERROR(WEEKDAY(A24,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" s="11" t="s">
+      <c r="F24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="M24" s="12" t="s">
+      <c r="M24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="11" t="s">
+      <c r="N24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="11" t="s">
+      <c r="P24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="R24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T24" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U24" s="11" t="s">
+      <c r="R24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="V24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="W24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y24" s="13" t="s">
+      <c r="V24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X24" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="Z24" s="13" t="s">
+      <c r="Z24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AA24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC24" s="11" t="s">
+      <c r="AA24" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB24" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AD24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE24" s="11" t="s">
+      <c r="AD24" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE24" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AF24" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG24" s="11" t="s">
+      <c r="AF24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG24" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI24" s="11" t="s">
+      <c r="AH24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI24" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AJ24" s="11" t="s">
+      <c r="AJ24" s="10" t="s">
         <v>18</v>
       </c>
       <c r="AK24" s="0" t="n">
@@ -4328,113 +4324,113 @@
       <c r="A25" s="1" t="n">
         <v>45131</v>
       </c>
-      <c r="B25" s="15" t="n">
+      <c r="B25" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A25,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="12" t="s">
+      <c r="F25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="11" t="s">
+      <c r="J25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L25" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T25" s="12" t="s">
+      <c r="O25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="U25" s="11" t="s">
+      <c r="U25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="V25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="X25" s="12" t="s">
+      <c r="V25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y25" s="11" t="s">
+      <c r="Y25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z25" s="11" t="s">
+      <c r="Z25" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AA25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC25" s="11" t="s">
+      <c r="AA25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC25" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AD25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE25" s="11" t="s">
+      <c r="AD25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE25" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AF25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AG25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI25" s="11" t="s">
+      <c r="AF25" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI25" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AJ25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK25" s="11" t="s">
+      <c r="AJ25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK25" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4442,113 +4438,113 @@
       <c r="A26" s="1" t="n">
         <v>45132</v>
       </c>
-      <c r="B26" s="15" t="n">
+      <c r="B26" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A26,2),"")</f>
         <v>2</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="12" t="s">
+      <c r="F26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K26" s="11" t="s">
+      <c r="J26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M26" s="12" t="s">
+      <c r="M26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26" s="12" t="s">
+      <c r="P26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="T26" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X26" s="12" t="s">
+      <c r="T26" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y26" s="11" t="s">
+      <c r="Y26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z26" s="11" t="s">
+      <c r="Z26" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AA26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC26" s="11" t="s">
+      <c r="AA26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC26" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="AD26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE26" s="11" t="s">
+      <c r="AD26" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE26" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AF26" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI26" s="11" t="s">
+      <c r="AF26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="AJ26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK26" s="11" t="s">
+      <c r="AJ26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AK26" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4556,113 +4552,113 @@
       <c r="A27" s="1" t="n">
         <v>45133</v>
       </c>
-      <c r="B27" s="15" t="n">
+      <c r="B27" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A27,2),"")</f>
         <v>3</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="K27" s="11" t="s">
+      <c r="F27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="12" t="s">
+      <c r="M27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S27" s="12" t="s">
+      <c r="P27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="T27" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W27" s="11" t="s">
+      <c r="T27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W27" s="10" t="s">
         <v>22</v>
       </c>
       <c r="X27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Y27" s="11" t="s">
+      <c r="Y27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="Z27" s="11" t="s">
+      <c r="Z27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AA27" s="11" t="s">
+      <c r="AA27" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AB27" s="11" t="s">
+      <c r="AB27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AC27" s="11" t="s">
+      <c r="AE27" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AD27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF27" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI27" s="11" t="s">
+      <c r="AF27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AJ27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK27" s="11" t="s">
+      <c r="AJ27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK27" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4670,110 +4666,110 @@
       <c r="A28" s="1" t="n">
         <v>45134</v>
       </c>
-      <c r="B28" s="15" t="n">
+      <c r="B28" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A28,2),"")</f>
         <v>4</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="12" t="s">
+      <c r="F28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K28" s="11" t="s">
+      <c r="K28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="M28" s="12" t="s">
+      <c r="M28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="O28" s="11" t="s">
+      <c r="O28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X28" s="12" t="s">
+      <c r="P28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y28" s="11" t="s">
+      <c r="Y28" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z28" s="11" t="s">
+      <c r="Z28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="AA28" s="11" t="s">
+      <c r="AA28" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="AB28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC28" s="11" t="s">
+      <c r="AB28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AD28" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE28" s="11" t="s">
+      <c r="AD28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AF28" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH28" s="11" t="s">
+      <c r="AF28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH28" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="AI28" s="11" t="s">
+      <c r="AI28" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AJ28" s="11" t="s">
+      <c r="AJ28" s="10" t="s">
         <v>12</v>
       </c>
       <c r="AK28" s="0" t="n">
@@ -4784,113 +4780,113 @@
       <c r="A29" s="1" t="n">
         <v>45135</v>
       </c>
-      <c r="B29" s="15" t="n">
+      <c r="B29" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A29,2),"")</f>
         <v>5</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="12" t="s">
+      <c r="F29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K29" s="11" t="s">
+      <c r="K29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L29" s="11" t="s">
+      <c r="L29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M29" s="12" t="s">
+      <c r="M29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N29" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O29" s="11" t="s">
+      <c r="O29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S29" s="12" t="s">
+      <c r="P29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="T29" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X29" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y29" s="11" t="s">
+      <c r="T29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X29" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z29" s="11" t="s">
+      <c r="Z29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AA29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB29" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE29" s="11" t="s">
+      <c r="AA29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB29" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE29" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="AF29" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI29" s="11" t="s">
+      <c r="AF29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AJ29" s="11" t="s">
+      <c r="AJ29" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AK29" s="11" t="s">
+      <c r="AK29" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4898,113 +4894,113 @@
       <c r="A30" s="1" t="n">
         <v>45136</v>
       </c>
-      <c r="B30" s="15" t="n">
+      <c r="B30" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A30,2),"")</f>
         <v>6</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30" s="12" t="s">
+      <c r="F30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="12" t="s">
+      <c r="L30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="11" t="s">
+      <c r="N30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q30" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="U30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="V30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="W30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="X30" s="12" t="s">
+      <c r="P30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R30" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S30" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X30" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Y30" s="11" t="s">
+      <c r="Y30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Z30" s="11" t="s">
+      <c r="Z30" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="AA30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE30" s="11" t="s">
+      <c r="AA30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE30" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AF30" s="12" t="s">
+      <c r="AF30" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AJ30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AK30" s="11" t="s">
+      <c r="AG30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ30" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK30" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5012,113 +5008,113 @@
       <c r="A31" s="1" t="n">
         <v>45137</v>
       </c>
-      <c r="B31" s="15" t="n">
+      <c r="B31" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A31,2),"")</f>
         <v>7</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I31" s="12" t="s">
+      <c r="F31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="N31" s="11" t="s">
+      <c r="M31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="O31" s="11" t="s">
+      <c r="O31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q31" s="11" t="s">
+      <c r="P31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q31" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="T31" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="U31" s="11" t="s">
+      <c r="R31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="U31" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="V31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="W31" s="11" t="s">
+      <c r="V31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X31" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="X31" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y31" s="11" t="s">
+      <c r="AG31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC31" s="11" t="s">
+      <c r="AH31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AD31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="AE31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF31" s="12" t="s">
+      <c r="AJ31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="AG31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="AI31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK31" s="11" t="s">
+      <c r="AK31" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5126,58 +5122,115 @@
       <c r="A32" s="1" t="n">
         <v>45138</v>
       </c>
-      <c r="B32" s="15" t="n">
+      <c r="B32" s="14" t="n">
         <f aca="false">IFERROR(WEEKDAY(A32,2),"")</f>
         <v>1</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R32" s="11"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="12"/>
-      <c r="AG32" s="11"/>
-      <c r="AH32" s="11"/>
-      <c r="AI32" s="11"/>
-      <c r="AJ32" s="11"/>
+      <c r="G32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="S32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z32" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB32" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD32" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE32" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK32" s="0" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="AG17:AJ17 N2:AK16 N17:AE17 N18:AK24 N25:W32 A1:AK1 A2:M32">
@@ -5295,874 +5348,874 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="16" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="4.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="13.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="39.85"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="17" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="4.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="16" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="16" width="13.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="16" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="16" width="39.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="16" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="str">
+      <c r="A1" s="17" t="str">
         <f aca="false">vedomost!A1</f>
         <v>DATE</v>
       </c>
-      <c r="B1" s="19" t="str">
+      <c r="B1" s="18" t="str">
         <f aca="false">vedomost!B1</f>
         <v>DAY</v>
       </c>
-      <c r="C1" s="20" t="str">
+      <c r="C1" s="19" t="str">
         <f aca="false">vedomost!F1</f>
         <v>DUTY</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="20" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="23" t="n">
+      <c r="A2" s="22" t="n">
         <f aca="false">vedomost!A2</f>
         <v>45108</v>
       </c>
-      <c r="B2" s="24" t="n">
+      <c r="B2" s="23" t="n">
         <f aca="false">vedomost!B2</f>
         <v>6</v>
       </c>
-      <c r="C2" s="19" t="str">
+      <c r="C2" s="18" t="str">
         <f aca="false">IF(vedomost!F2=0,"",vedomost!F2)</f>
         <v>Ed24(1)</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="23" t="n">
+      <c r="A3" s="22" t="n">
         <f aca="false">vedomost!A3</f>
         <v>45109</v>
       </c>
-      <c r="B3" s="24" t="n">
+      <c r="B3" s="23" t="n">
         <f aca="false">vedomost!B3</f>
         <v>7</v>
       </c>
-      <c r="C3" s="19" t="str">
+      <c r="C3" s="18" t="str">
         <f aca="false">IF(vedomost!F3=0,"",vedomost!F3)</f>
         <v>-</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27" t="s">
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="n">
+      <c r="A4" s="22" t="n">
         <f aca="false">vedomost!A4</f>
         <v>45110</v>
       </c>
-      <c r="B4" s="24" t="n">
+      <c r="B4" s="23" t="n">
         <f aca="false">vedomost!B4</f>
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="str">
+      <c r="C4" s="18" t="str">
         <f aca="false">IF(vedomost!F4=0,"",vedomost!F4)</f>
         <v>Ed8(1)</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27" t="s">
+      <c r="G4" s="24"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="28"/>
-      <c r="K4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="23" t="n">
+      <c r="A5" s="22" t="n">
         <f aca="false">vedomost!A5</f>
         <v>45111</v>
       </c>
-      <c r="B5" s="24" t="n">
+      <c r="B5" s="23" t="n">
         <f aca="false">vedomost!B5</f>
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="str">
+      <c r="C5" s="18" t="str">
         <f aca="false">IF(vedomost!F5=0,"",vedomost!F5)</f>
         <v>Ed24(2)</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="23" t="n">
+      <c r="A6" s="22" t="n">
         <f aca="false">vedomost!A6</f>
         <v>45112</v>
       </c>
-      <c r="B6" s="24" t="n">
+      <c r="B6" s="23" t="n">
         <f aca="false">vedomost!B6</f>
         <v>3</v>
       </c>
-      <c r="C6" s="19" t="str">
+      <c r="C6" s="18" t="str">
         <f aca="false">IF(vedomost!F6=0,"",vedomost!F6)</f>
         <v>-</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="J6" s="28"/>
-      <c r="K6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="23" t="n">
+      <c r="A7" s="22" t="n">
         <f aca="false">vedomost!A7</f>
         <v>45113</v>
       </c>
-      <c r="B7" s="24" t="n">
+      <c r="B7" s="23" t="n">
         <f aca="false">vedomost!B7</f>
         <v>4</v>
       </c>
-      <c r="C7" s="19" t="str">
+      <c r="C7" s="18" t="str">
         <f aca="false">IF(vedomost!F7=0,"",vedomost!F7)</f>
         <v>Ed8(1)</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25" t="s">
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27" t="s">
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="J7" s="28"/>
-      <c r="K7" s="26"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="n">
+      <c r="A8" s="22" t="n">
         <f aca="false">vedomost!A8</f>
         <v>45114</v>
       </c>
-      <c r="B8" s="24" t="n">
+      <c r="B8" s="23" t="n">
         <f aca="false">vedomost!B8</f>
         <v>5</v>
       </c>
-      <c r="C8" s="19" t="str">
+      <c r="C8" s="18" t="str">
         <f aca="false">IF(vedomost!F8=0,"",vedomost!F8)</f>
         <v>-</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="25"/>
+      <c r="I8" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="J8" s="28"/>
-      <c r="K8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23" t="n">
+      <c r="A9" s="22" t="n">
         <f aca="false">vedomost!A9</f>
         <v>45115</v>
       </c>
-      <c r="B9" s="24" t="n">
+      <c r="B9" s="23" t="n">
         <f aca="false">vedomost!B9</f>
         <v>6</v>
       </c>
-      <c r="C9" s="19" t="str">
+      <c r="C9" s="18" t="str">
         <f aca="false">IF(vedomost!F9=0,"",vedomost!F9)</f>
         <v>Ed24(2)</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25" t="s">
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27" t="s">
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="J9" s="28"/>
-      <c r="K9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="23" t="n">
+      <c r="A10" s="22" t="n">
         <f aca="false">vedomost!A10</f>
         <v>45116</v>
       </c>
-      <c r="B10" s="24" t="n">
+      <c r="B10" s="23" t="n">
         <f aca="false">vedomost!B10</f>
         <v>7</v>
       </c>
-      <c r="C10" s="19" t="str">
+      <c r="C10" s="18" t="str">
         <f aca="false">IF(vedomost!F10=0,"",vedomost!F10)</f>
         <v>-</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="23" t="n">
+      <c r="A11" s="22" t="n">
         <f aca="false">vedomost!A11</f>
         <v>45117</v>
       </c>
-      <c r="B11" s="24" t="n">
+      <c r="B11" s="23" t="n">
         <f aca="false">vedomost!B11</f>
         <v>1</v>
       </c>
-      <c r="C11" s="19" t="str">
+      <c r="C11" s="18" t="str">
         <f aca="false">IF(vedomost!F11=0,"",vedomost!F11)</f>
         <v>Ed8(2)</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="17" t="s">
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="J11" s="28"/>
-      <c r="K11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="23" t="n">
+      <c r="A12" s="22" t="n">
         <f aca="false">vedomost!A12</f>
         <v>45118</v>
       </c>
-      <c r="B12" s="24" t="n">
+      <c r="B12" s="23" t="n">
         <f aca="false">vedomost!B12</f>
         <v>2</v>
       </c>
-      <c r="C12" s="19" t="str">
+      <c r="C12" s="18" t="str">
         <f aca="false">IF(vedomost!F12=0,"",vedomost!F12)</f>
         <v>Ed24(2)</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27" t="s">
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="J12" s="28"/>
-      <c r="K12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="23" t="n">
+      <c r="A13" s="22" t="n">
         <f aca="false">vedomost!A13</f>
         <v>45119</v>
       </c>
-      <c r="B13" s="24" t="n">
+      <c r="B13" s="23" t="n">
         <f aca="false">vedomost!B13</f>
         <v>3</v>
       </c>
-      <c r="C13" s="19" t="str">
+      <c r="C13" s="18" t="str">
         <f aca="false">IF(vedomost!F13=0,"",vedomost!F13)</f>
         <v>-</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G13" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="J13" s="28"/>
-      <c r="K13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="23" t="n">
+      <c r="A14" s="22" t="n">
         <f aca="false">vedomost!A14</f>
         <v>45120</v>
       </c>
-      <c r="B14" s="24" t="n">
+      <c r="B14" s="23" t="n">
         <f aca="false">vedomost!B14</f>
         <v>4</v>
       </c>
-      <c r="C14" s="19" t="str">
+      <c r="C14" s="18" t="str">
         <f aca="false">IF(vedomost!F14=0,"",vedomost!F14)</f>
         <v>Ed8(2)</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="26"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="26"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="23" t="n">
+      <c r="A15" s="22" t="n">
         <f aca="false">vedomost!A15</f>
         <v>45121</v>
       </c>
-      <c r="B15" s="24" t="n">
+      <c r="B15" s="23" t="n">
         <f aca="false">vedomost!B15</f>
         <v>5</v>
       </c>
-      <c r="C15" s="19" t="str">
+      <c r="C15" s="18" t="str">
         <f aca="false">IF(vedomost!F15=0,"",vedomost!F15)</f>
         <v>Ed24(2)</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25" t="s">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="23" t="n">
+      <c r="A16" s="22" t="n">
         <f aca="false">vedomost!A16</f>
         <v>45122</v>
       </c>
-      <c r="B16" s="24" t="n">
+      <c r="B16" s="23" t="n">
         <f aca="false">vedomost!B16</f>
         <v>6</v>
       </c>
-      <c r="C16" s="19" t="str">
+      <c r="C16" s="18" t="str">
         <f aca="false">IF(vedomost!F16=0,"",vedomost!F16)</f>
         <v>-</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25" t="s">
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G16" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27" t="s">
+      <c r="H16" s="25"/>
+      <c r="I16" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="J16" s="28"/>
-      <c r="K16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="23" t="n">
+      <c r="A17" s="22" t="n">
         <f aca="false">vedomost!A17</f>
         <v>45123</v>
       </c>
-      <c r="B17" s="24" t="n">
+      <c r="B17" s="23" t="n">
         <f aca="false">vedomost!B17</f>
         <v>7</v>
       </c>
-      <c r="C17" s="19" t="str">
+      <c r="C17" s="18" t="str">
         <f aca="false">IF(vedomost!F17=0,"",vedomost!F17)</f>
         <v>Ed24(2)</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25" t="s">
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="26"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="23" t="n">
+      <c r="A18" s="22" t="n">
         <f aca="false">vedomost!A18</f>
         <v>45124</v>
       </c>
-      <c r="B18" s="24" t="n">
+      <c r="B18" s="23" t="n">
         <f aca="false">vedomost!B18</f>
         <v>1</v>
       </c>
-      <c r="C18" s="19" t="str">
+      <c r="C18" s="18" t="str">
         <f aca="false">IF(vedomost!F18=0,"",vedomost!F18)</f>
         <v>Ed8(2)</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="22" t="s">
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="23" t="n">
+      <c r="A19" s="22" t="n">
         <f aca="false">vedomost!A19</f>
         <v>45125</v>
       </c>
-      <c r="B19" s="24" t="n">
+      <c r="B19" s="23" t="n">
         <f aca="false">vedomost!B19</f>
         <v>2</v>
       </c>
-      <c r="C19" s="19" t="str">
+      <c r="C19" s="18" t="str">
         <f aca="false">IF(vedomost!F19=0,"",vedomost!F19)</f>
         <v>-</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27" t="s">
+      <c r="G19" s="24"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="J19" s="28"/>
-      <c r="K19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="23" t="n">
+      <c r="A20" s="22" t="n">
         <f aca="false">vedomost!A20</f>
         <v>45126</v>
       </c>
-      <c r="B20" s="24" t="n">
+      <c r="B20" s="23" t="n">
         <f aca="false">vedomost!B20</f>
         <v>3</v>
       </c>
-      <c r="C20" s="19" t="str">
+      <c r="C20" s="18" t="str">
         <f aca="false">IF(vedomost!F20=0,"",vedomost!F20)</f>
         <v>-</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27" t="s">
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="J20" s="28"/>
-      <c r="K20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="23" t="n">
+      <c r="A21" s="22" t="n">
         <f aca="false">vedomost!A21</f>
         <v>45127</v>
       </c>
-      <c r="B21" s="24" t="n">
+      <c r="B21" s="23" t="n">
         <f aca="false">vedomost!B21</f>
         <v>4</v>
       </c>
-      <c r="C21" s="19" t="str">
+      <c r="C21" s="18" t="str">
         <f aca="false">IF(vedomost!F21=0,"",vedomost!F21)</f>
         <v>Ed8(1)</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25" t="s">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="J21" s="28"/>
-      <c r="K21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="23" t="n">
+      <c r="A22" s="22" t="n">
         <f aca="false">vedomost!A22</f>
         <v>45128</v>
       </c>
-      <c r="B22" s="24" t="n">
+      <c r="B22" s="23" t="n">
         <f aca="false">vedomost!B22</f>
         <v>5</v>
       </c>
-      <c r="C22" s="19" t="str">
+      <c r="C22" s="18" t="str">
         <f aca="false">IF(vedomost!F22=0,"",vedomost!F22)</f>
         <v>Ed24(2)</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27" t="s">
+      <c r="H22" s="25"/>
+      <c r="I22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="J22" s="28"/>
-      <c r="K22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="23" t="n">
+      <c r="A23" s="22" t="n">
         <f aca="false">vedomost!A23</f>
         <v>45129</v>
       </c>
-      <c r="B23" s="24" t="n">
+      <c r="B23" s="23" t="n">
         <f aca="false">vedomost!B23</f>
         <v>6</v>
       </c>
-      <c r="C23" s="19" t="str">
+      <c r="C23" s="18" t="str">
         <f aca="false">IF(vedomost!F23=0,"",vedomost!F23)</f>
         <v>-</v>
       </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25" t="s">
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="J23" s="28"/>
-      <c r="K23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="n">
+      <c r="A24" s="22" t="n">
         <f aca="false">vedomost!A24</f>
         <v>45130</v>
       </c>
-      <c r="B24" s="24" t="n">
+      <c r="B24" s="23" t="n">
         <f aca="false">vedomost!B24</f>
         <v>7</v>
       </c>
-      <c r="C24" s="19" t="str">
+      <c r="C24" s="18" t="str">
         <f aca="false">IF(vedomost!F24=0,"",vedomost!F24)</f>
         <v>-</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25" t="s">
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27" t="s">
+      <c r="G24" s="24"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="J24" s="28"/>
-      <c r="K24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="n">
+      <c r="A25" s="22" t="n">
         <f aca="false">vedomost!A25</f>
         <v>45131</v>
       </c>
-      <c r="B25" s="24" t="n">
+      <c r="B25" s="23" t="n">
         <f aca="false">vedomost!B25</f>
         <v>1</v>
       </c>
-      <c r="C25" s="19" t="str">
+      <c r="C25" s="18" t="str">
         <f aca="false">IF(vedomost!F25=0,"",vedomost!F25)</f>
         <v>-</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="17" t="s">
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="23" t="n">
+      <c r="A26" s="22" t="n">
         <f aca="false">vedomost!A26</f>
         <v>45132</v>
       </c>
-      <c r="B26" s="24" t="n">
+      <c r="B26" s="23" t="n">
         <f aca="false">vedomost!B26</f>
         <v>2</v>
       </c>
-      <c r="C26" s="19" t="str">
+      <c r="C26" s="18" t="str">
         <f aca="false">IF(vedomost!F26=0,"",vedomost!F26)</f>
         <v>-</v>
       </c>
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="J26" s="28"/>
-      <c r="K26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="25"/>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="23" t="n">
+      <c r="A27" s="22" t="n">
         <f aca="false">vedomost!A27</f>
         <v>45133</v>
       </c>
-      <c r="B27" s="24" t="n">
+      <c r="B27" s="23" t="n">
         <f aca="false">vedomost!B27</f>
         <v>3</v>
       </c>
-      <c r="C27" s="19" t="str">
+      <c r="C27" s="18" t="str">
         <f aca="false">IF(vedomost!F27=0,"",vedomost!F27)</f>
         <v>-</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="J27" s="28"/>
-      <c r="K27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="25"/>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="23" t="n">
+      <c r="A28" s="22" t="n">
         <f aca="false">vedomost!A28</f>
         <v>45134</v>
       </c>
-      <c r="B28" s="24" t="n">
+      <c r="B28" s="23" t="n">
         <f aca="false">vedomost!B28</f>
         <v>4</v>
       </c>
-      <c r="C28" s="19" t="str">
+      <c r="C28" s="18" t="str">
         <f aca="false">IF(vedomost!F28=0,"",vedomost!F28)</f>
         <v>-</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25" t="s">
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="17" t="s">
+      <c r="G28" s="24"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="J28" s="28"/>
-      <c r="K28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="25"/>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="23" t="n">
+      <c r="A29" s="22" t="n">
         <f aca="false">vedomost!A29</f>
         <v>45135</v>
       </c>
-      <c r="B29" s="24" t="n">
+      <c r="B29" s="23" t="n">
         <f aca="false">vedomost!B29</f>
         <v>5</v>
       </c>
-      <c r="C29" s="19" t="str">
+      <c r="C29" s="18" t="str">
         <f aca="false">IF(vedomost!F29=0,"",vedomost!F29)</f>
         <v>-</v>
       </c>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25" t="s">
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="26"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="25"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="23" t="n">
+      <c r="A30" s="22" t="n">
         <f aca="false">vedomost!A30</f>
         <v>45136</v>
       </c>
-      <c r="B30" s="24" t="n">
+      <c r="B30" s="23" t="n">
         <f aca="false">vedomost!B30</f>
         <v>6</v>
       </c>
-      <c r="C30" s="19" t="str">
+      <c r="C30" s="18" t="str">
         <f aca="false">IF(vedomost!F30=0,"",vedomost!F30)</f>
         <v>-</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25" t="s">
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="26"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="25"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="23" t="n">
+      <c r="A31" s="22" t="n">
         <f aca="false">vedomost!A31</f>
         <v>45137</v>
       </c>
-      <c r="B31" s="24" t="n">
+      <c r="B31" s="23" t="n">
         <f aca="false">vedomost!B31</f>
         <v>7</v>
       </c>
-      <c r="C31" s="19" t="str">
+      <c r="C31" s="18" t="str">
         <f aca="false">IF(vedomost!F31=0,"",vedomost!F31)</f>
         <v>-</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="26"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="25"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="23" t="n">
+      <c r="A32" s="22" t="n">
         <f aca="false">vedomost!A32</f>
         <v>45138</v>
       </c>
-      <c r="B32" s="24" t="n">
+      <c r="B32" s="23" t="n">
         <f aca="false">vedomost!B32</f>
         <v>1</v>
       </c>
-      <c r="C32" s="19" t="str">
+      <c r="C32" s="18" t="str">
         <f aca="false">IF(vedomost!F32=0,"",vedomost!F32)</f>
         <v>Ed24(1)</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="26"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
@@ -6209,7 +6262,7 @@
       <selection pane="bottomRight" activeCell="S3" activeCellId="0" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.86"/>
@@ -6240,937 +6293,937 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="36.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="36" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="29" t="s">
+    <row r="1" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="32" t="s">
         <v>150</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="P1" s="35" t="s">
+      <c r="P1" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="Q1" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="R1" s="34" t="s">
+      <c r="R1" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="S1" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="T1" s="34" t="s">
+      <c r="T1" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="U1" s="34" t="s">
+      <c r="U1" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="V1" s="34" t="s">
+      <c r="V1" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="W1" s="34" t="s">
+      <c r="W1" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="35" t="s">
+      <c r="X1" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="Y1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="Z1" s="34" t="s">
+      <c r="Z1" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="AA1" s="34" t="s">
+      <c r="AA1" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="AB1" s="34" t="s">
+      <c r="AB1" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="AC1" s="34" t="s">
+      <c r="AC1" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AD1" s="33" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="40" t="s">
         <v>172</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="M2" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="Y2" s="41" t="s">
+      <c r="Y2" s="40" t="s">
         <v>188</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="Z2" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="AD2" s="42" t="s">
+      <c r="AD2" s="41" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="I3" s="47" t="s">
+      <c r="I3" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="J3" s="47" t="s">
+      <c r="J3" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="L3" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="Q3" s="49" t="s">
+      <c r="Q3" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="S3" s="50" t="s">
+      <c r="S3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="50" t="s">
+      <c r="T3" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="U3" s="50" t="s">
+      <c r="U3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="V3" s="50" t="s">
+      <c r="V3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="W3" s="50" t="s">
+      <c r="W3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="X3" s="51" t="s">
+      <c r="X3" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="Y3" s="49" t="s">
+      <c r="Y3" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="Z3" s="50" t="s">
+      <c r="Z3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="AA3" s="50" t="s">
+      <c r="AA3" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="AB3" s="50" t="s">
+      <c r="AB3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="AC3" s="50" t="s">
+      <c r="AC3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="AD3" s="50" t="s">
+      <c r="AD3" s="49" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="44" t="s">
+      <c r="H4" s="54"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="L4" s="57" t="s">
+      <c r="L4" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="M4" s="57" t="s">
+      <c r="M4" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="N4" s="58" t="s">
+      <c r="N4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="P4" s="59" t="s">
+      <c r="P4" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="Q4" s="57" t="s">
+      <c r="Q4" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="R4" s="58" t="s">
+      <c r="R4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="S4" s="58" t="s">
+      <c r="S4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="T4" s="58" t="s">
+      <c r="T4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="U4" s="58" t="s">
+      <c r="U4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="V4" s="58" t="s">
+      <c r="V4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="W4" s="58" t="s">
+      <c r="W4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="X4" s="59" t="s">
+      <c r="X4" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="Y4" s="57" t="s">
+      <c r="Y4" s="56" t="s">
         <v>194</v>
       </c>
-      <c r="Z4" s="58" t="s">
+      <c r="Z4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="AA4" s="58" t="s">
+      <c r="AA4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="AB4" s="58" t="s">
+      <c r="AB4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="AC4" s="58" t="s">
+      <c r="AC4" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="AD4" s="58" t="s">
+      <c r="AD4" s="57" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="55" t="s">
+      <c r="C5" s="60"/>
+      <c r="D5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="J5" s="55" t="s">
+      <c r="J5" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="K5" s="55" t="s">
+      <c r="K5" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="L5" s="63" t="s">
+      <c r="L5" s="62" t="s">
         <v>198</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="66" t="s">
+      <c r="M5" s="62"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="S5" s="66"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="66" t="s">
+      <c r="S5" s="65"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="68" t="s">
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="Z5" s="66" t="s">
+      <c r="Z5" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="66" t="s">
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="AC5" s="66" t="s">
+      <c r="AC5" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="AD5" s="66" t="s">
+      <c r="AD5" s="65" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="55" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="75" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="R6" s="76" t="s">
+      <c r="R6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="S6" s="76" t="s">
+      <c r="S6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="T6" s="76" t="s">
+      <c r="T6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="V6" s="76" t="s">
+      <c r="V6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="W6" s="76" t="s">
+      <c r="W6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="X6" s="77" t="s">
+      <c r="X6" s="76" t="s">
         <v>192</v>
       </c>
-      <c r="Y6" s="75" t="s">
+      <c r="Y6" s="74" t="s">
         <v>192</v>
       </c>
-      <c r="Z6" s="76" t="s">
+      <c r="Z6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="AA6" s="76" t="s">
+      <c r="AA6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="AB6" s="76" t="s">
+      <c r="AB6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="AC6" s="76" t="s">
+      <c r="AC6" s="75" t="s">
         <v>192</v>
       </c>
-      <c r="AD6" s="76" t="s">
+      <c r="AD6" s="75" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="69" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="70" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="72" t="s">
+      <c r="F7" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="G7" s="56" t="s">
+      <c r="G7" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56" t="s">
+      <c r="H7" s="55"/>
+      <c r="I7" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="J7" s="56" t="s">
+      <c r="J7" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="K7" s="56" t="s">
+      <c r="K7" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="M7" s="72" t="s">
+      <c r="M7" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="N7" s="73" t="s">
+      <c r="N7" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="O7" s="73" t="s">
+      <c r="O7" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="P7" s="74" t="s">
+      <c r="P7" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="Q7" s="72" t="s">
+      <c r="Q7" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="R7" s="73" t="s">
+      <c r="R7" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="S7" s="73" t="s">
+      <c r="S7" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="T7" s="73" t="s">
+      <c r="T7" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="U7" s="73" t="s">
+      <c r="U7" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73" t="s">
+      <c r="V7" s="72"/>
+      <c r="W7" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="X7" s="74" t="s">
+      <c r="X7" s="73" t="s">
         <v>202</v>
       </c>
-      <c r="Y7" s="72" t="s">
+      <c r="Y7" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="Z7" s="73" t="s">
+      <c r="Z7" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="AA7" s="73" t="s">
+      <c r="AA7" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73" t="s">
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="AD7" s="73" t="s">
+      <c r="AD7" s="72" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="77" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="79" t="s">
         <v>193</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="82" t="s">
+      <c r="E8" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="F8" s="83" t="s">
+      <c r="F8" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="80" t="s">
         <v>204</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="H8" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="81" t="s">
+      <c r="I8" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="J8" s="81" t="s">
+      <c r="J8" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="K8" s="81" t="s">
+      <c r="K8" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="L8" s="83" t="s">
+      <c r="L8" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="M8" s="83" t="s">
+      <c r="M8" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="N8" s="84" t="s">
+      <c r="N8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="O8" s="84" t="s">
+      <c r="O8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="P8" s="85" t="s">
+      <c r="P8" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="Q8" s="83" t="s">
+      <c r="Q8" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="R8" s="84" t="s">
+      <c r="R8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="S8" s="84" t="s">
+      <c r="S8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="T8" s="84" t="s">
+      <c r="T8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="U8" s="84" t="s">
+      <c r="U8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="V8" s="84" t="s">
+      <c r="V8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="W8" s="84" t="s">
+      <c r="W8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="X8" s="85" t="s">
+      <c r="X8" s="84" t="s">
         <v>193</v>
       </c>
-      <c r="Y8" s="83" t="s">
+      <c r="Y8" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="Z8" s="84" t="s">
+      <c r="Z8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="AA8" s="84" t="s">
+      <c r="AA8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="AB8" s="84" t="s">
+      <c r="AB8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="AC8" s="84" t="s">
+      <c r="AC8" s="83" t="s">
         <v>193</v>
       </c>
-      <c r="AD8" s="84" t="s">
+      <c r="AD8" s="83" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="85" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="86" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="88" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="90" t="s">
+      <c r="F9" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="G9" s="86" t="s">
+      <c r="G9" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="86" t="s">
+      <c r="H9" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="I9" s="86" t="s">
+      <c r="I9" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="J9" s="86" t="s">
+      <c r="J9" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="K9" s="86" t="s">
+      <c r="K9" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="L9" s="90" t="s">
+      <c r="L9" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="M9" s="90" t="s">
+      <c r="M9" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="N9" s="91" t="s">
+      <c r="N9" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="O9" s="91" t="s">
+      <c r="O9" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="P9" s="92" t="s">
+      <c r="P9" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="Q9" s="90" t="s">
+      <c r="Q9" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="R9" s="91" t="s">
+      <c r="R9" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="S9" s="91" t="s">
+      <c r="S9" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="T9" s="91"/>
-      <c r="U9" s="91" t="s">
+      <c r="T9" s="90"/>
+      <c r="U9" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="V9" s="91" t="s">
+      <c r="V9" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="W9" s="91" t="s">
+      <c r="W9" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="X9" s="92" t="s">
+      <c r="X9" s="91" t="s">
         <v>197</v>
       </c>
-      <c r="Y9" s="90" t="s">
+      <c r="Y9" s="89" t="s">
         <v>197</v>
       </c>
-      <c r="Z9" s="91" t="s">
+      <c r="Z9" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="AA9" s="91"/>
-      <c r="AB9" s="91" t="s">
+      <c r="AA9" s="90"/>
+      <c r="AB9" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="AC9" s="91" t="s">
+      <c r="AC9" s="90" t="s">
         <v>197</v>
       </c>
-      <c r="AD9" s="91" t="s">
+      <c r="AD9" s="90" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="93" t="s">
+      <c r="A10" s="92" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="96" t="s">
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="95" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="97"/>
-      <c r="G10" s="93" t="s">
+      <c r="F10" s="96"/>
+      <c r="G10" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93" t="s">
+      <c r="J10" s="92"/>
+      <c r="K10" s="92" t="s">
         <v>207</v>
       </c>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="99" t="s">
+      <c r="L10" s="96"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="P10" s="100" t="s">
+      <c r="P10" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="Q10" s="101" t="s">
+      <c r="Q10" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="99" t="s">
+      <c r="R10" s="97"/>
+      <c r="S10" s="97"/>
+      <c r="T10" s="97"/>
+      <c r="U10" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="V10" s="99" t="s">
+      <c r="V10" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="W10" s="99" t="s">
+      <c r="W10" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="99" t="s">
+      <c r="X10" s="101"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="97"/>
+      <c r="AA10" s="97"/>
+      <c r="AB10" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="AC10" s="99" t="s">
+      <c r="AC10" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="AD10" s="98"/>
+      <c r="AD10" s="97"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="93" t="s">
+      <c r="A11" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="103" t="n">
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="F11" s="97"/>
-      <c r="G11" s="93" t="n">
+      <c r="F11" s="96"/>
+      <c r="G11" s="92" t="n">
         <v>3</v>
       </c>
-      <c r="H11" s="93"/>
-      <c r="I11" s="104" t="n">
+      <c r="H11" s="92"/>
+      <c r="I11" s="103" t="n">
         <v>3</v>
       </c>
-      <c r="J11" s="93"/>
-      <c r="K11" s="104" t="s">
+      <c r="J11" s="92"/>
+      <c r="K11" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98" t="n">
+      <c r="L11" s="96"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97" t="n">
         <v>3</v>
       </c>
-      <c r="P11" s="102" t="n">
+      <c r="P11" s="101" t="n">
         <v>3</v>
       </c>
-      <c r="Q11" s="97" t="n">
+      <c r="Q11" s="96" t="n">
         <v>3</v>
       </c>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98" t="s">
+      <c r="R11" s="97"/>
+      <c r="S11" s="97"/>
+      <c r="T11" s="97"/>
+      <c r="U11" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="V11" s="98" t="n">
+      <c r="V11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="W11" s="98" t="n">
+      <c r="W11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="X11" s="102"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98" t="n">
+      <c r="X11" s="101"/>
+      <c r="Y11" s="96"/>
+      <c r="Z11" s="97"/>
+      <c r="AA11" s="97"/>
+      <c r="AB11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="AC11" s="98" t="n">
+      <c r="AC11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="AD11" s="98"/>
+      <c r="AD11" s="97"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="93" t="s">
+      <c r="A12" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="103" t="n">
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="102" t="n">
         <v>25</v>
       </c>
-      <c r="F12" s="97"/>
-      <c r="G12" s="93" t="n">
+      <c r="F12" s="96"/>
+      <c r="G12" s="92" t="n">
         <v>25</v>
       </c>
-      <c r="H12" s="93"/>
-      <c r="I12" s="104" t="n">
+      <c r="H12" s="92"/>
+      <c r="I12" s="103" t="n">
         <v>50</v>
       </c>
-      <c r="J12" s="93"/>
-      <c r="K12" s="104" t="n">
+      <c r="J12" s="92"/>
+      <c r="K12" s="103" t="n">
         <v>100</v>
       </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98" t="n">
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97" t="n">
         <v>30</v>
       </c>
-      <c r="P12" s="102" t="n">
+      <c r="P12" s="101" t="n">
         <v>30</v>
       </c>
-      <c r="Q12" s="97" t="s">
+      <c r="Q12" s="96" t="s">
         <v>210</v>
       </c>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98" t="s">
+      <c r="R12" s="97"/>
+      <c r="S12" s="97"/>
+      <c r="T12" s="97"/>
+      <c r="U12" s="97" t="s">
         <v>211</v>
       </c>
-      <c r="V12" s="98" t="n">
+      <c r="V12" s="97" t="n">
         <v>25</v>
       </c>
-      <c r="W12" s="98" t="n">
+      <c r="W12" s="97" t="n">
         <v>25</v>
       </c>
-      <c r="X12" s="102"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98" t="n">
+      <c r="X12" s="101"/>
+      <c r="Y12" s="96"/>
+      <c r="Z12" s="97"/>
+      <c r="AA12" s="97"/>
+      <c r="AB12" s="97" t="n">
         <v>25</v>
       </c>
-      <c r="AC12" s="98" t="n">
+      <c r="AC12" s="97" t="n">
         <v>25</v>
       </c>
-      <c r="AD12" s="98"/>
+      <c r="AD12" s="97"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">

--- a/months/jul23/jul23.xlsx
+++ b/months/jul23/jul23.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="vedomost" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="214">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -321,6 +321,9 @@
     <t xml:space="preserve">7</t>
   </si>
   <si>
+    <t xml:space="preserve">L!</t>
+  </si>
+  <si>
     <t xml:space="preserve">E5</t>
   </si>
   <si>
@@ -537,7 +540,7 @@
     <t xml:space="preserve">{"&lt;=.2": 50, "&lt;.4": 25, "&gt;=.4": -50 }</t>
   </si>
   <si>
-    <t xml:space="preserve">{"+": 50 , "-": -50}</t>
+    <t xml:space="preserve">{"+": 50 , "-": 0}</t>
   </si>
   <si>
     <t xml:space="preserve">{"&gt;.0": "20*", "0": -50, "f": 0}</t>
@@ -618,7 +621,7 @@
     <t xml:space="preserve">0.1</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.5</t>
+    <t xml:space="preserve">-0.3</t>
   </si>
   <si>
     <t xml:space="preserve">0.2</t>
@@ -1505,17 +1508,17 @@
   </sheetPr>
   <dimension ref="A1:AM32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="I17" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="8" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topRight" activeCell="AD1" activeCellId="0" sqref="AD1"/>
+      <selection pane="bottomLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AE14" activeCellId="0" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="26.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="4.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.57"/>
@@ -5004,7 +5007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>45137</v>
       </c>
@@ -5031,22 +5034,22 @@
         <v>12</v>
       </c>
       <c r="I31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" s="10" t="s">
-        <v>58</v>
+        <v>99</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>58</v>
+      <c r="L31" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N31" s="10" t="s">
-        <v>58</v>
+      <c r="N31" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="O31" s="10" t="s">
         <v>17</v>
@@ -5067,7 +5070,7 @@
         <v>14</v>
       </c>
       <c r="U31" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="V31" s="10" t="s">
         <v>18</v>
@@ -5082,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="Z31" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AA31" s="10" t="s">
         <v>22</v>
@@ -5118,7 +5121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>45138</v>
       </c>
@@ -5374,28 +5377,28 @@
         <v>DUTY</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5414,12 +5417,12 @@
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" s="24"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J2" s="27"/>
       <c r="K2" s="25"/>
@@ -5438,12 +5441,12 @@
         <v>-</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G3" s="24"/>
       <c r="H3" s="25"/>
       <c r="I3" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J3" s="27"/>
       <c r="K3" s="25"/>
@@ -5463,15 +5466,15 @@
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G4" s="24"/>
       <c r="H4" s="25"/>
       <c r="I4" s="26" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J4" s="27"/>
       <c r="K4" s="25"/>
@@ -5492,12 +5495,12 @@
       <c r="D5" s="24"/>
       <c r="E5" s="24"/>
       <c r="F5" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="25"/>
       <c r="I5" s="26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J5" s="27"/>
       <c r="K5" s="25"/>
@@ -5517,14 +5520,14 @@
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="26" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J6" s="27"/>
       <c r="K6" s="25"/>
@@ -5543,16 +5546,16 @@
         <v>Ed8(1)</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J7" s="27"/>
       <c r="K7" s="25"/>
@@ -5573,14 +5576,14 @@
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H8" s="25"/>
       <c r="I8" s="26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J8" s="27"/>
       <c r="K8" s="25"/>
@@ -5601,12 +5604,12 @@
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" s="24"/>
       <c r="H9" s="25"/>
       <c r="I9" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J9" s="27"/>
       <c r="K9" s="25"/>
@@ -5626,15 +5629,15 @@
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G10" s="24"/>
       <c r="H10" s="25"/>
       <c r="I10" s="26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J10" s="27"/>
       <c r="K10" s="25"/>
@@ -5653,12 +5656,12 @@
         <v>Ed8(2)</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G11" s="24"/>
       <c r="H11" s="25"/>
       <c r="I11" s="16" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J11" s="27"/>
       <c r="K11" s="25"/>
@@ -5679,12 +5682,12 @@
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="25"/>
       <c r="I12" s="26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="25"/>
@@ -5705,16 +5708,16 @@
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H13" s="25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I13" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="25"/>
@@ -5733,13 +5736,13 @@
         <v>Ed8(2)</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G14" s="24"/>
       <c r="H14" s="25"/>
@@ -5762,12 +5765,12 @@
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
@@ -5788,14 +5791,14 @@
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H16" s="25"/>
       <c r="I16" s="26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="25"/>
@@ -5816,7 +5819,7 @@
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
@@ -5839,12 +5842,12 @@
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
       <c r="I18" s="21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="25"/>
@@ -5863,18 +5866,18 @@
         <v>-</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
       <c r="I19" s="26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="25"/>
@@ -5895,12 +5898,12 @@
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
       <c r="I20" s="26" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="25"/>
@@ -5921,12 +5924,12 @@
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
       <c r="I21" s="26" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="25"/>
@@ -5947,14 +5950,14 @@
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="25"/>
       <c r="I22" s="26" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="25"/>
@@ -5975,12 +5978,12 @@
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G23" s="24"/>
       <c r="H23" s="25"/>
       <c r="I23" s="26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="25"/>
@@ -6001,12 +6004,12 @@
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G24" s="24"/>
       <c r="H24" s="25"/>
       <c r="I24" s="26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="25"/>
@@ -6025,18 +6028,18 @@
         <v>-</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G25" s="24"/>
       <c r="H25" s="25"/>
       <c r="I25" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="25"/>
@@ -6055,12 +6058,12 @@
         <v>-</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G26" s="24"/>
       <c r="H26" s="25"/>
       <c r="I26" s="26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J26" s="27"/>
       <c r="K26" s="25"/>
@@ -6081,16 +6084,16 @@
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H27" s="25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I27" s="26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="25"/>
@@ -6111,12 +6114,12 @@
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G28" s="24"/>
       <c r="H28" s="25"/>
       <c r="I28" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J28" s="27"/>
       <c r="K28" s="25"/>
@@ -6137,7 +6140,7 @@
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="25"/>
@@ -6161,10 +6164,10 @@
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H30" s="25"/>
       <c r="I30" s="26"/>
@@ -6187,7 +6190,7 @@
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G31" s="24"/>
       <c r="H31" s="25"/>
@@ -6254,12 +6257,12 @@
   </sheetPr>
   <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="O1" activeCellId="0" sqref="O1"/>
+      <selection pane="topRight" activeCell="V1" activeCellId="0" sqref="V1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S3" activeCellId="0" sqref="S3"/>
+      <selection pane="bottomRight" activeCell="V5" activeCellId="0" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6295,278 +6298,278 @@
   <sheetData>
     <row r="1" s="35" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="28" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F1" s="32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I1" s="28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="J1" s="28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K1" s="28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L1" s="32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M1" s="32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P1" s="34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q1" s="32" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="R1" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="S1" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T1" s="33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U1" s="33" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V1" s="33" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W1" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="X1" s="34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y1" s="32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z1" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA1" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB1" s="33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC1" s="33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AD1" s="33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D2" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E2" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="F2" s="40" t="s">
-        <v>172</v>
-      </c>
       <c r="G2" s="36" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K2" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" s="40" t="s">
         <v>178</v>
       </c>
-      <c r="L2" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="M2" s="40" t="s">
-        <v>177</v>
-      </c>
       <c r="N2" s="41" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P2" s="42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="R2" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="S2" s="41" t="s">
+      <c r="V2" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="W2" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="X2" s="42" t="s">
+        <v>188</v>
+      </c>
+      <c r="Y2" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z2" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="T2" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="U2" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="V2" s="41" t="s">
+      <c r="AA2" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="W2" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="X2" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y2" s="40" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z2" s="41" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA2" s="41" t="s">
-        <v>185</v>
-      </c>
       <c r="AB2" s="41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AC2" s="41" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD2" s="41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="43" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B3" s="44" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C3" s="45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G3" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I3" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J3" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K3" s="46" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L3" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M3" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O3" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P3" s="50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R3" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S3" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T3" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="U3" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="U3" s="49" t="s">
-        <v>192</v>
-      </c>
       <c r="V3" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W3" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X3" s="50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y3" s="48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z3" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA3" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="AB3" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="AB3" s="49" t="s">
-        <v>192</v>
-      </c>
       <c r="AC3" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD3" s="49" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6574,121 +6577,121 @@
         <v>6</v>
       </c>
       <c r="B4" s="51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D4" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="53" t="s">
-        <v>194</v>
-      </c>
       <c r="F4" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="43" t="s">
         <v>195</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>194</v>
       </c>
       <c r="H4" s="54"/>
       <c r="I4" s="55"/>
       <c r="J4" s="43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K4" s="43" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L4" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="M4" s="56" t="s">
-        <v>194</v>
-      </c>
       <c r="N4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P4" s="58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q4" s="56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="V4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="W4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="X4" s="58" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y4" s="56" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Z4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AB4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AC4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AD4" s="57" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C5" s="60"/>
       <c r="D5" s="54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E5" s="61"/>
       <c r="F5" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="54" t="s">
-        <v>197</v>
-      </c>
       <c r="H5" s="54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J5" s="54" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K5" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="L5" s="62" t="s">
         <v>199</v>
-      </c>
-      <c r="L5" s="62" t="s">
-        <v>198</v>
       </c>
       <c r="M5" s="62"/>
       <c r="N5" s="63"/>
@@ -6696,36 +6699,36 @@
       <c r="P5" s="64"/>
       <c r="Q5" s="62"/>
       <c r="R5" s="65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S5" s="65"/>
       <c r="T5" s="63"/>
       <c r="U5" s="65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V5" s="65"/>
       <c r="W5" s="65"/>
       <c r="X5" s="66"/>
       <c r="Y5" s="67" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Z5" s="65" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AA5" s="63"/>
       <c r="AB5" s="65" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AC5" s="65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD5" s="65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B6" s="68"/>
       <c r="C6" s="69"/>
@@ -6743,375 +6746,377 @@
       <c r="O6" s="72"/>
       <c r="P6" s="73"/>
       <c r="Q6" s="74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="R6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="T6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="U6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="V6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X6" s="76" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Y6" s="74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AA6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AB6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AC6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD6" s="75" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C7" s="69" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D7" s="55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E7" s="70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G7" s="55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H7" s="55"/>
       <c r="I7" s="55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J7" s="55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K7" s="55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L7" s="71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M7" s="71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="O7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P7" s="73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="R7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="T7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="U7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="V7" s="72"/>
       <c r="W7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X7" s="73" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Y7" s="71" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Z7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AB7" s="72"/>
       <c r="AC7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AD7" s="72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="77" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B8" s="78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E8" s="81" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F8" s="82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G8" s="80" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H8" s="80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I8" s="80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J8" s="80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K8" s="80" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L8" s="82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M8" s="82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P8" s="84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="T8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="U8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="V8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="W8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X8" s="84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y8" s="82" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Z8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AB8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AC8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AD8" s="83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D9" s="85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F9" s="89" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G9" s="85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H9" s="85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I9" s="85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J9" s="85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K9" s="85" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L9" s="89" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M9" s="89" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N9" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O9" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P9" s="91" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="89" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="R9" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S9" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="T9" s="90"/>
       <c r="U9" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="V9" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="W9" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="X9" s="91" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Y9" s="89" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z9" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA9" s="90"/>
       <c r="AB9" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC9" s="90" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AD9" s="90" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B10" s="93"/>
       <c r="C10" s="94"/>
       <c r="D10" s="92"/>
       <c r="E10" s="95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F10" s="96"/>
       <c r="G10" s="92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H10" s="92"/>
       <c r="I10" s="92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J10" s="92"/>
       <c r="K10" s="92" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L10" s="96"/>
       <c r="M10" s="96"/>
       <c r="N10" s="97"/>
       <c r="O10" s="98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P10" s="99" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="100" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R10" s="97"/>
       <c r="S10" s="97"/>
       <c r="T10" s="97"/>
       <c r="U10" s="98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="V10" s="98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="W10" s="98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="X10" s="101"/>
-      <c r="Y10" s="96"/>
+      <c r="Y10" s="100" t="s">
+        <v>208</v>
+      </c>
       <c r="Z10" s="97"/>
       <c r="AA10" s="97"/>
       <c r="AB10" s="98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AC10" s="98" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AD10" s="97"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B11" s="93"/>
       <c r="C11" s="94"/>
@@ -7149,37 +7154,39 @@
       <c r="U11" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="V11" s="97" t="n">
-        <v>2</v>
+      <c r="V11" s="97" t="s">
+        <v>23</v>
       </c>
       <c r="W11" s="97" t="n">
         <v>2</v>
       </c>
       <c r="X11" s="101"/>
-      <c r="Y11" s="96"/>
+      <c r="Y11" s="96" t="n">
+        <v>3</v>
+      </c>
       <c r="Z11" s="97"/>
       <c r="AA11" s="97"/>
-      <c r="AB11" s="97" t="n">
-        <v>2</v>
+      <c r="AB11" s="97" t="s">
+        <v>23</v>
       </c>
       <c r="AC11" s="97" t="n">
         <v>2</v>
       </c>
       <c r="AD11" s="97"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B12" s="93"/>
       <c r="C12" s="94"/>
       <c r="D12" s="92"/>
-      <c r="E12" s="102" t="n">
-        <v>25</v>
+      <c r="E12" s="102" t="s">
+        <v>211</v>
       </c>
       <c r="F12" s="96"/>
-      <c r="G12" s="92" t="n">
-        <v>25</v>
+      <c r="G12" s="92" t="s">
+        <v>211</v>
       </c>
       <c r="H12" s="92"/>
       <c r="I12" s="103" t="n">
@@ -7199,26 +7206,28 @@
         <v>30</v>
       </c>
       <c r="Q12" s="96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R12" s="97"/>
       <c r="S12" s="97"/>
       <c r="T12" s="97"/>
       <c r="U12" s="97" t="s">
+        <v>212</v>
+      </c>
+      <c r="V12" s="97" t="s">
         <v>211</v>
-      </c>
-      <c r="V12" s="97" t="n">
-        <v>25</v>
       </c>
       <c r="W12" s="97" t="n">
         <v>25</v>
       </c>
       <c r="X12" s="101"/>
-      <c r="Y12" s="96"/>
+      <c r="Y12" s="96" t="s">
+        <v>211</v>
+      </c>
       <c r="Z12" s="97"/>
       <c r="AA12" s="97"/>
-      <c r="AB12" s="97" t="n">
-        <v>25</v>
+      <c r="AB12" s="97" t="s">
+        <v>211</v>
       </c>
       <c r="AC12" s="97" t="n">
         <v>25</v>
@@ -7227,7 +7236,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D13" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>58</v>
@@ -7243,7 +7252,7 @@
       <c r="W20" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I11:I12 K11:K12 O11:Q12 U11:U12 E7:E10 H4:I4 A5:C9 D4:D9 F7:F9 G5:AD9 E4:F6">
+  <conditionalFormatting sqref="I11:I12 K11:K12 O11:Q12 U11:U12 E7:E10 H4:I4 A5:C9 D4:D9 F7:F9 G5:AD9 E4:F6 Y11:Y12">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
     </cfRule>
@@ -7278,7 +7287,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
+  <conditionalFormatting sqref="Q10 Y10">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>0</formula>
     </cfRule>
